--- a/biology/Botanique/Tillandsia_biflora/Tillandsia_biflora.xlsx
+++ b/biology/Botanique/Tillandsia_biflora/Tillandsia_biflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia biflora est une espèce de plantes à fleurs de la famille des Bromeliaceae, largement répandue de la Mésoamérique à l'Amérique du Sud. L'épithète biflora signifie « à deux fleurs » et se rapporte à la morphologie habituelle des épis individuels de l'inflorescence.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-Diaphoranthema biflora (Ruiz &amp; Pav.) Beer
-Synonymie taxonomique
-Tillandsia tetrantha Griseb. non Ruiz &amp; Pav[1],[2].
-Tillandsia grisebachiana Baker[1],[2]
-Tillandsia augustae-regiae Mez[1],[2]</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Diaphoranthema biflora (Ruiz &amp; Pav.) Beer</t>
         </is>
       </c>
     </row>
@@ -543,53 +556,59 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Synonymies</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tillandsia tetrantha Griseb. non Ruiz &amp; Pav,.
+Tillandsia grisebachiana Baker,
+Tillandsia augustae-regiae Mez,</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tillandsia_biflora</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_biflora</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Protologue et type nomenclatural</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tillandsia biflora Ruiz &amp; Pav., Fl. Per. 3: 41, no 4, tab. 268b (1802)
-Diagnose originale[3]
+Diagnose originale
 « T. scapo racemoso, floribus geminis, foliis ensiformibus acutis. »
 Type
 Ruiz &amp; Pav., Fl. Per. : tab. 268b (1802)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Tillandsia_biflora</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tillandsia_biflora</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Distribution et habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Distribution
-L'espèce se rencontre largement en Amérique central, notamment au Costa Rica[1],[2] et au Panama[2] et en Amérique du Sud, en Bolivie[4],[5],[1],[2], Colombie[4],[5],[1],[2], Pérou[4],[1],[2], notamment dans les Andes péruviennes[3],[5], ainsi qu'au Venezuela[1].
-Habitat
-Selon les auteurs, l'espèce croit entre 1130 et 3 000 mètres d'altitude, notamment entre 1 130 et 2 630 mètres pour Carl Christian Mez[4], entre 1 000 et 3 000 mètres pour W. Rauh[1] ou entre 1 900 et 3 000 mètres pour A. Roguenant[2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -611,12 +630,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Distribution et habitat</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tillandsia biflora est une plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux, épiphyte[4],[1],[2] et parfois saxicole[2].
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre largement en Amérique central, notamment au Costa Rica, et au Panama et en Amérique du Sud, en Bolivie Colombie Pérou notamment dans les Andes péruviennes ainsi qu'au Venezuela.
 </t>
         </is>
       </c>
@@ -642,12 +667,84 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les auteurs, l'espèce croit entre 1130 et 3 000 mètres d'altitude, notamment entre 1 130 et 2 630 mètres pour Carl Christian Mez, entre 1 000 et 3 000 mètres pour W. Rauh ou entre 1 900 et 3 000 mètres pour A. Roguenant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tillandsia_biflora</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_biflora</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia biflora est une plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux, épiphyte et parfois saxicole.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_biflora</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_biflora</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia biflora est réputée être de culture difficile[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia biflora est réputée être de culture difficile.
 </t>
         </is>
       </c>
